--- a/Industry/201612-201908/HKD/MILLION/Analysis_132_Household Textile Products (SITC Codes)_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_132_Household Textile Products (SITC Codes)_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="1536" yWindow="1536"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -25854,6 +25855,1621 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="2" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="7" min="3" width="8"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="10"/>
+    <col bestFit="1" customWidth="1" max="10" min="9" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="4" spans="1:15">
+      <c r="A1" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" t="n">
+        <v>865.421</v>
+      </c>
+      <c r="D2" t="n">
+        <v>678.741</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-21.571</v>
+      </c>
+      <c r="F2" t="n">
+        <v>412.463</v>
+      </c>
+      <c r="G2" t="n">
+        <v>651.155</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-4.064</v>
+      </c>
+      <c r="I2" t="n">
+        <v>484.295</v>
+      </c>
+      <c r="J2" t="n">
+        <v>17.415</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+      <c r="O2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" t="n">
+        <v>189.882</v>
+      </c>
+      <c r="D3" t="n">
+        <v>134.83</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-28.992</v>
+      </c>
+      <c r="F3" t="n">
+        <v>83.10599999999999</v>
+      </c>
+      <c r="G3" t="n">
+        <v>141.426</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.892</v>
+      </c>
+      <c r="I3" t="n">
+        <v>144.502</v>
+      </c>
+      <c r="J3" t="n">
+        <v>73.876</v>
+      </c>
+      <c r="K3" t="n">
+        <v>21.941</v>
+      </c>
+      <c r="L3" t="n">
+        <v>19.865</v>
+      </c>
+      <c r="M3" t="n">
+        <v>20.149</v>
+      </c>
+      <c r="N3" t="n">
+        <v>21.719</v>
+      </c>
+      <c r="O3" t="n">
+        <v>29.838</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" t="n">
+        <v>208.524</v>
+      </c>
+      <c r="D4" t="n">
+        <v>122.387</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-41.308</v>
+      </c>
+      <c r="F4" t="n">
+        <v>56.016</v>
+      </c>
+      <c r="G4" t="n">
+        <v>92.389</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-24.511</v>
+      </c>
+      <c r="I4" t="n">
+        <v>61.889</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10.484</v>
+      </c>
+      <c r="K4" t="n">
+        <v>24.095</v>
+      </c>
+      <c r="L4" t="n">
+        <v>18.032</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13.581</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14.188</v>
+      </c>
+      <c r="O4" t="n">
+        <v>12.779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" t="n">
+        <v>62.105</v>
+      </c>
+      <c r="D5" t="n">
+        <v>83.23699999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>34.028</v>
+      </c>
+      <c r="F5" t="n">
+        <v>56.546</v>
+      </c>
+      <c r="G5" t="n">
+        <v>83.41200000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I5" t="n">
+        <v>57.561</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7.176</v>
+      </c>
+      <c r="L5" t="n">
+        <v>12.263</v>
+      </c>
+      <c r="M5" t="n">
+        <v>13.709</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="O5" t="n">
+        <v>11.886</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" t="n">
+        <v>69.696</v>
+      </c>
+      <c r="D6" t="n">
+        <v>53.945</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-22.6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>47.307</v>
+      </c>
+      <c r="G6" t="n">
+        <v>61.951</v>
+      </c>
+      <c r="H6" t="n">
+        <v>14.841</v>
+      </c>
+      <c r="I6" t="n">
+        <v>43.202</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-8.678000000000001</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8.053000000000001</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7.948</v>
+      </c>
+      <c r="M6" t="n">
+        <v>11.469</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9.513999999999999</v>
+      </c>
+      <c r="O6" t="n">
+        <v>8.920999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" t="n">
+        <v>41.66</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50.231</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20.574</v>
+      </c>
+      <c r="F7" t="n">
+        <v>19.395</v>
+      </c>
+      <c r="G7" t="n">
+        <v>32.146</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-36.004</v>
+      </c>
+      <c r="I7" t="n">
+        <v>26.888</v>
+      </c>
+      <c r="J7" t="n">
+        <v>38.631</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.814</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7.401</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4.702</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.937</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5.552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" t="n">
+        <v>31.306</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20.128</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-35.706</v>
+      </c>
+      <c r="F8" t="n">
+        <v>20.519</v>
+      </c>
+      <c r="G8" t="n">
+        <v>31.408</v>
+      </c>
+      <c r="H8" t="n">
+        <v>56.044</v>
+      </c>
+      <c r="I8" t="n">
+        <v>16.234</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-20.885</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.617</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.965</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4.975</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.823</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3.352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" t="n">
+        <v>24.368</v>
+      </c>
+      <c r="D9" t="n">
+        <v>34.48</v>
+      </c>
+      <c r="E9" t="n">
+        <v>41.496</v>
+      </c>
+      <c r="F9" t="n">
+        <v>17.167</v>
+      </c>
+      <c r="G9" t="n">
+        <v>34.79</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.897</v>
+      </c>
+      <c r="I9" t="n">
+        <v>16.065</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-6.416</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.816</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.343</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3.317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>13.349</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-31.891</v>
+      </c>
+      <c r="F10" t="n">
+        <v>13.641</v>
+      </c>
+      <c r="G10" t="n">
+        <v>19.234</v>
+      </c>
+      <c r="H10" t="n">
+        <v>44.081</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15.535</v>
+      </c>
+      <c r="J10" t="n">
+        <v>13.884</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.265</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.967</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3.307</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.954</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3.208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" t="n">
+        <v>21.023</v>
+      </c>
+      <c r="D11" t="n">
+        <v>17.912</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-14.797</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10.037</v>
+      </c>
+      <c r="G11" t="n">
+        <v>15.918</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-11.13</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12.876</v>
+      </c>
+      <c r="J11" t="n">
+        <v>28.285</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.429</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.639</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.433</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.445</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" t="n">
+        <v>38.21</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7.989</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-79.09099999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9.449</v>
+      </c>
+      <c r="G12" t="n">
+        <v>13.058</v>
+      </c>
+      <c r="H12" t="n">
+        <v>63.45</v>
+      </c>
+      <c r="I12" t="n">
+        <v>12.253</v>
+      </c>
+      <c r="J12" t="n">
+        <v>29.676</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.415</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.177</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.291</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.005</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" t="n">
+        <v>29.532</v>
+      </c>
+      <c r="D13" t="n">
+        <v>15.519</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-47.451</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>12.578</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-18.952</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10.567</v>
+      </c>
+      <c r="J13" t="n">
+        <v>18.742</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.412</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.286</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.158</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20.593</v>
+      </c>
+      <c r="D14" t="n">
+        <v>11.617</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-43.588</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6.357</v>
+      </c>
+      <c r="G14" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10.186</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9.824</v>
+      </c>
+      <c r="J14" t="n">
+        <v>54.534</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.541</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.966</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.029</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" t="n">
+        <v>21.744</v>
+      </c>
+      <c r="D15" t="n">
+        <v>24.622</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13.231</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8.441000000000001</v>
+      </c>
+      <c r="G15" t="n">
+        <v>12.078</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-50.944</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9.632999999999999</v>
+      </c>
+      <c r="J15" t="n">
+        <v>14.118</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.513</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.628</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.047</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9.336</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14.886</v>
+      </c>
+      <c r="E16" t="n">
+        <v>59.444</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9.843</v>
+      </c>
+      <c r="G16" t="n">
+        <v>16.579</v>
+      </c>
+      <c r="H16" t="n">
+        <v>11.372</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7.996</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-18.766</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.079</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.193</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.387</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.546</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.651</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="B17" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C17" t="n">
+        <v>21.848</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15.577</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-28.703</v>
+      </c>
+      <c r="F17" t="n">
+        <v>12.836</v>
+      </c>
+      <c r="G17" t="n">
+        <v>17.846</v>
+      </c>
+      <c r="H17" t="n">
+        <v>14.565</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6.808</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-46.961</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.525</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.295</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.741</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="B18" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7.973</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6.161</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-22.719</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4.283</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6.143</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.296</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6.699</v>
+      </c>
+      <c r="J18" t="n">
+        <v>56.42</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.038</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.482</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3.997</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-38.344</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4.632</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6.617</v>
+      </c>
+      <c r="H19" t="n">
+        <v>65.554</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.205</v>
+      </c>
+      <c r="J19" t="n">
+        <v>12.374</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.589</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.123</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.016</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.075</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="B20" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.363</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7.477</v>
+      </c>
+      <c r="E20" t="n">
+        <v>39.422</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.143</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4.505</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-39.747</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="J20" t="n">
+        <v>19.004</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.102</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.772</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.203</v>
+      </c>
+      <c r="E21" t="n">
+        <v>45.56</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.113</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="H21" t="n">
+        <v>59.365</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.838</v>
+      </c>
+      <c r="J21" t="n">
+        <v>154.925</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.586</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C22" t="n">
+        <v>9.464</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8.388999999999999</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-11.356</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.344</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-48.031</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.654</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-20.646</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.094</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.236</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.548</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="B23" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.013</v>
+      </c>
+      <c r="E23" t="n">
+        <v>95.449</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.384</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.097</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4.191</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J23" t="n">
+        <v>67.622</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.907</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5.974</v>
+      </c>
+      <c r="E24" t="n">
+        <v>21.756</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.417</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-42.798</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.086</v>
+      </c>
+      <c r="J24" t="n">
+        <v>15.312</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="B25" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.366</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4.446</v>
+      </c>
+      <c r="E25" t="n">
+        <v>32.06</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.742</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4.077</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-8.295999999999999</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.949</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-28.908</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.402</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="B26" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C26" t="n">
+        <v>8.749000000000001</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5.238</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-40.126</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5.559</v>
+      </c>
+      <c r="G26" t="n">
+        <v>12.299</v>
+      </c>
+      <c r="H26" t="n">
+        <v>134.784</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-69.181</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.011</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.348</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.354</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="B27" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.701</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4.278</v>
+      </c>
+      <c r="E27" t="n">
+        <v>58.413</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.149</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-26.392</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-21.966</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.577</v>
+      </c>
+      <c r="E28" t="n">
+        <v>277.007</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.358</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.953</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-45.396</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-27.786</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="B29" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-31.636</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="H29" t="n">
+        <v>168.912</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="J29" t="n">
+        <v>142.195</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.099</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="B30" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.446</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.979</v>
+      </c>
+      <c r="E30" t="n">
+        <v>62.698</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.048</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-65.062</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-75.44799999999999</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.053</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="B31" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="E31" t="n">
+        <v>199.74</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-26.243</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-50.925</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E32" t="n">
+        <v>157.603</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-28.345</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-20.576</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="B33" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-34.25</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-49.14</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-99.867</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="B34" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-90.67100000000001</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="H34" t="n">
+        <v>11679.767</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-100</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="B35" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-66.16200000000001</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H35" t="n">
+        <v>86.384</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A22:A23"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="2" min="1" width="6.33203125"/>
     <col bestFit="1" customWidth="1" max="4" min="3" width="9"/>
     <col bestFit="1" customWidth="1" max="5" min="5" width="8"/>
     <col bestFit="1" customWidth="1" max="7" min="6" width="9"/>
